--- a/South-Africa/Province-Origin-Daily-Dictionary.xlsx
+++ b/South-Africa/Province-Origin-Daily-Dictionary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://villanova-my.sharepoint.com/personal/wluo01_villanova_edu/Documents/Shared-data/NGA-ZAF-2020-metrics-09132023/South Africa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="289" documentId="13_ncr:1_{BF923147-13F4-409C-B347-A0E96CA394FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4B65D44B-2DE3-E84F-837F-4D3FE82D6D0B}"/>
+  <xr:revisionPtr revIDLastSave="297" documentId="13_ncr:1_{BF923147-13F4-409C-B347-A0E96CA394FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CD666634-F018-2A4F-B941-2D6DD7EDC38C}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="18700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15360" yWindow="500" windowWidth="15360" windowHeight="18700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Column definition" sheetId="2" r:id="rId1"/>
@@ -131,78 +131,15 @@
     <t>lockdown_5</t>
   </si>
   <si>
-    <t>Level-1 administration code of trip origin. The code is defined by COD (Common Operational Datasets)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Level-1 administration name of trip origin. </t>
-  </si>
-  <si>
     <t>ZA6</t>
   </si>
   <si>
     <t>North West</t>
   </si>
   <si>
-    <t># of trips</t>
-  </si>
-  <si>
-    <t># of tours</t>
-  </si>
-  <si>
-    <t># of IDs</t>
-  </si>
-  <si>
     <t>Composite key</t>
   </si>
   <si>
-    <t xml:space="preserve">The sum of straight-line distance of consective points in a trip. Measured in meters. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The sum of straight-line distance of consective points in a tour. Measured in meters. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Time elapsed in seconds. </t>
-  </si>
-  <si>
-    <t>Trip miles of each ID</t>
-  </si>
-  <si>
-    <t>Tour miles of each ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Time elapsed per trip. Measured in minutes. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Time elapsed per ID. Measured in minutes. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trips per ID. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percentage of population aged 0-14 years in the administrative district from which the trip originated. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percentage of population aged 15-64 years in the administrative district from which the trip originated. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percentage of population aged 65+ years in the administrative district from which the trip originated. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percentage of male population in the administrative district from which the trip originated. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Population in the administrative district from which the trip originated. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Relative Wealth Index of the administrative district from which the trip originated. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percentile of Relative Wealth Index of the administrative district from which the trip originated. </t>
-  </si>
-  <si>
-    <t>Daily new COVID-19 cases of the province (level-1) from which the trip originated.</t>
-  </si>
-  <si>
     <t>yyyymmdd</t>
   </si>
   <si>
@@ -270,6 +207,69 @@
   </si>
   <si>
     <t>yyyy/M/D</t>
+  </si>
+  <si>
+    <t>Level-1 administration (Province-level) code of trip origin. The code is defined by COD (Common Operational Datasets)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Level-1 administration (Province-level) name of trip origin. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"># of trips which originated from "admin1Name_1" on "local_date_1". </t>
+  </si>
+  <si>
+    <t xml:space="preserve"># of tours containing trips which originated from "admin1Name_1" on "local_date_1". </t>
+  </si>
+  <si>
+    <t xml:space="preserve"># of IDs who travel from "admin1Name_1" on "local_date_1". </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The sum of straight-line distance of consective points of the tours containing the trips which originated from "admin1Name_1" on "local_date_1". Measured in meters. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The sum of straight-line distance of consective points of trips which originated from "admin1Name_1" on "local_date_1". Measured in meters. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total time elapsed of trips which originated from "admin1Name_1" on "local_date_1" in seconds. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average miles of trips which originated from "admin1Name_1" on "local_date_1" per person. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average miles per person among trips which originated from "admin1Name_1" on "local_date_1". </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average travel time of trips which originated from "admin1Name_1" on "local_date_1". Measured in minutes. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average travel time per person among trips which originated from "admin1Name_1" on "local_date_1". Measured in minutes. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average # of trips which originated from "admin1Name_1" on "local_date_1" per person. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage of population aged 0-14 years in the "admin1Name_1" . </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage of population aged 15-64 years in the "admin1Name_1" . </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage of population aged 65+ years in the "admin1Name_1". </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage of male population in the "admin1Name_1". </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Population in the "admin1Name_1". </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relative Wealth Index of the "admin1Name_1". </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentile of Relative Wealth Index of the "admin1Name_1". </t>
+  </si>
+  <si>
+    <t>Daily new COVID-19 cases of the "admin1Name_1".</t>
   </si>
 </sst>
 </file>
@@ -625,8 +625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECAE956F-53BA-4E06-B3BF-7B9319FD9618}">
   <dimension ref="A1:E61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="169" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -654,7 +654,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="32" x14ac:dyDescent="0.2">
@@ -662,16 +662,16 @@
         <v>9</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -679,16 +679,16 @@
         <v>10</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -699,13 +699,13 @@
         <v>7</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="D4" s="7">
         <v>43831</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -713,7 +713,7 @@
         <v>12</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>4</v>
@@ -722,12 +722,12 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>4</v>
@@ -741,7 +741,7 @@
         <v>14</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>4</v>
@@ -750,12 +750,12 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>5</v>
@@ -764,12 +764,12 @@
         <v>232737687.59225801</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>5</v>
@@ -778,12 +778,12 @@
         <v>100676264.647842</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>4</v>
@@ -792,12 +792,12 @@
         <v>8099551</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>5</v>
@@ -806,12 +806,12 @@
         <v>60.3835237396056</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>5</v>
@@ -820,12 +820,12 @@
         <v>139.591210827955</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>18</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>5</v>
@@ -834,12 +834,12 @@
         <v>125.45772924411401</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>5</v>
@@ -848,12 +848,12 @@
         <v>130.301657014157</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>5</v>
@@ -870,18 +870,18 @@
         <v>8</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="D16" s="3">
         <v>20200101</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>5</v>
@@ -890,12 +890,12 @@
         <v>0.28287454218675601</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>5</v>
@@ -904,12 +904,12 @@
         <v>0.65318266413852799</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>5</v>
@@ -918,12 +918,12 @@
         <v>6.3942793674714296E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>5</v>
@@ -932,12 +932,12 @@
         <v>0.51691541443550204</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>4</v>
@@ -946,12 +946,12 @@
         <v>3885864</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>5</v>
@@ -960,12 +960,12 @@
         <v>-4.6773881576953197E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>5</v>
@@ -974,12 +974,12 @@
         <v>0.11111111111111099</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>4</v>
@@ -993,10 +993,10 @@
         <v>22</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="D25" s="3">
         <v>1</v>
@@ -1007,10 +1007,10 @@
         <v>23</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="D26" s="3">
         <v>1</v>
@@ -1021,7 +1021,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>4</v>
@@ -1035,10 +1035,10 @@
         <v>25</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="D28" s="3">
         <v>0</v>
@@ -1049,10 +1049,10 @@
         <v>26</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="D29" s="3">
         <v>1</v>
@@ -1063,10 +1063,10 @@
         <v>27</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="D30" s="3">
         <v>0</v>
@@ -1077,10 +1077,10 @@
         <v>28</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="D31" s="3">
         <v>0</v>
@@ -1091,10 +1091,10 @@
         <v>29</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="D32" s="3">
         <v>0</v>
@@ -1105,10 +1105,10 @@
         <v>30</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="D33" s="3">
         <v>0</v>
